--- a/ML_11012020/KQ.xlsx
+++ b/ML_11012020/KQ.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>KQ</t>
         </is>
       </c>
@@ -453,8 +458,13 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>7</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Nguyen Van 1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -464,8 +474,13 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="n">
-        <v>7</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Nguyen Van 2</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="4">
@@ -475,8 +490,157 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Nguyen Van 3</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Nguyen Van 4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Nguyen Van 5</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Nguyen Van 6</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Nguyen Van 7</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nguyen Van 8</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nguyen Van 9</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nguyen Van 10</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Nguyen Van 11</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nguyen Van 12</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5.67</v>
       </c>
     </row>
   </sheetData>
